--- a/DymonProject/DymonProject/SwapCurveResult.xlsx
+++ b/DymonProject/DymonProject/SwapCurveResult.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="14220" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="14220" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="LogLinear on DF" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
-    <t>15/03/2013</t>
-  </si>
-  <si>
     <t>USD/DEP/1D</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>21/03/2013</t>
   </si>
 </sst>
 </file>
@@ -95,11 +95,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -616,36 +616,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="20" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="20" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,472 +1001,492 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>99.9995000025</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
-        <v>41348</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B2" s="10">
+        <v>41354</v>
+      </c>
+      <c r="C2" s="19">
         <v>0.99999500002499997</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="15">
+      <c r="D2" s="2"/>
+      <c r="E2" s="10">
+        <v>41354</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.99999500002499997</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5">
+        <f>F2-C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>41351</v>
-      </c>
-      <c r="C3" s="4">
-        <v>99.997833371943997</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="5">
-        <v>41351</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.99997833371943801</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="15">
-        <v>1.9984014443252818E-15</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>41355</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.99998944452809002</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10">
+        <v>41355</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.99998944452808602</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H21" si="0">F3-C3</f>
+        <v>-3.9968028886505635E-15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>41382</v>
-      </c>
-      <c r="C4" s="6">
-        <v>99.981905698904001</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5">
-        <v>41382</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.999819056989109</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="15">
-        <v>-6.8944849829222221E-14</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>41386</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.99983016602801</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="10">
+        <v>41386</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.99983016602802499</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4988010832439613E-14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>41443</v>
-      </c>
-      <c r="C5" s="4">
-        <v>99.921227097835995</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="5">
-        <v>41443</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.99921227097835497</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="15">
-        <v>4.9960036108132044E-15</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>41449</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.99920673258755999</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="10">
+        <v>41449</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.99920673258755899</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.9920072216264089E-16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>41535</v>
-      </c>
-      <c r="C6" s="4">
-        <v>99.750308523027996</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="5">
-        <v>41535</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.99750308523027698</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="15">
-        <v>2.9976021664879227E-15</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>41540</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.99750074942915001</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="10">
+        <v>41540</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.99750074942914502</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.9960036108132044E-15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>41626</v>
-      </c>
-      <c r="C7" s="4">
-        <v>99.574613604510006</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5">
-        <v>41626</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.99574613604509699</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="15">
-        <v>3.1086244689504383E-15</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>41631</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.99574187521957003</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="10">
+        <v>41631</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.99574187521956603</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.9968028886505635E-15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>41716</v>
-      </c>
-      <c r="C8" s="12">
-        <v>99.687707257390997</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11">
-        <v>41716</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.99687707257401903</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16">
-        <v>-1.0902390101819037E-13</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>41722</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.99686967177626995</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="16">
+        <v>41722</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.99686967177646002</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.900701818158268E-13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
-        <v>42081</v>
-      </c>
-      <c r="C9" s="4">
-        <v>99.257245104454</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="5">
-        <v>42081</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.99257245104451997</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="15">
-        <v>1.9984014443252818E-14</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>42086</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.99257251486841991</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10">
+        <v>42086</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.99257251486847198</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2069459854919842E-14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9">
-        <v>42447</v>
-      </c>
-      <c r="C10" s="4">
-        <v>98.541581281440003</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="5">
-        <v>42447</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.98541581281441104</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="15">
-        <v>-1.099120794378905E-14</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>42451</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.98542602045609995</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10">
+        <v>42451</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.98542602045609995</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9">
-        <v>42814</v>
-      </c>
-      <c r="C11" s="4">
-        <v>97.309282223943995</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="5">
-        <v>42814</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.97309277001475103</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="15">
-        <v>5.2224688906754579E-8</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>42816</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.97313748211122009</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10">
+        <v>42816</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.97313748211130802</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>8.7929663550312398E-14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>43178</v>
-      </c>
-      <c r="C12" s="4">
-        <v>95.509142719563997</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="5">
-        <v>43178</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.95509114499841197</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="15">
-        <v>2.8219722802980129E-7</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43181</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.95512007753979999</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10">
+        <v>43181</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.95512007753974404</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>-5.595524044110789E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>43542</v>
-      </c>
-      <c r="C13" s="4">
-        <v>93.198411096704007</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="5">
-        <v>43542</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.931983638031471</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="15">
-        <v>4.7293556904026701E-7</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>43549</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.93178143749049991</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="10">
+        <v>43549</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.93178143749054099</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1078251911130792E-14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9">
-        <v>43908</v>
-      </c>
-      <c r="C14" s="4">
-        <v>90.535809949127994</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5">
-        <v>43908</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.90535763472092901</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="15">
-        <v>4.6477035098302366E-7</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>43913</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.90532315713458</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="10">
+        <v>43913</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.90532315713464395</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>6.3948846218409017E-14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9">
-        <v>44273</v>
-      </c>
-      <c r="C15" s="4">
-        <v>87.66303031484</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="5">
-        <v>44273</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.87662984823008605</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="15">
-        <v>4.5491831390798154E-7</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44277</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.87662473852262002</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="10">
+        <v>44277</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.87662473852255896</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.106226635438361E-14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9">
-        <v>44641</v>
-      </c>
-      <c r="C16" s="4">
-        <v>84.696858050855994</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="5">
-        <v>44638</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.84720486888986601</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="15">
-        <v>-2.3628838130607122E-4</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44642</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.84719324922656003</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="10">
+        <v>44642</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.84719324922592398</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>-6.3604677080775218E-13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9">
-        <v>45005</v>
-      </c>
-      <c r="C17" s="4">
-        <v>81.700716306820993</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="5">
-        <v>45005</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.817005478124185</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="15">
-        <v>1.6849440249711023E-6</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>45007</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.81707618222658995</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="10">
+        <v>45007</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0.81707618222662304</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3084646133829665E-14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9">
-        <v>46832</v>
-      </c>
-      <c r="C18" s="4">
-        <v>67.260295834426003</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="5">
-        <v>46832</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.67260073329348202</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="15">
-        <v>2.2250507779597584E-6</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>46834</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.67223180685086004</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="10">
+        <v>46834</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.67223180685088102</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0983215165415459E-14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9">
-        <v>48659</v>
-      </c>
-      <c r="C19" s="4">
-        <v>55.769923347141003</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="5">
-        <v>48656</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.55786731487833896</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="15">
-        <v>-1.680814069289216E-4</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>48660</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.55725022196459006</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="10">
+        <v>48660</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.55725022196460405</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3988810110276972E-14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9">
-        <v>50482</v>
-      </c>
-      <c r="C20" s="4">
-        <v>46.673460881320999</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="5">
-        <v>50482</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.46673029777324598</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="15">
-        <v>4.3110399640111652E-6</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>50486</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.46609894810813002</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10">
+        <v>50486</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.46609894810816799</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7969627442180354E-14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9">
-        <v>52308</v>
-      </c>
-      <c r="C21" s="4">
-        <v>39.136294371342998</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="5">
-        <v>52308</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0.39135838555555003</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="15">
-        <v>4.5581578799747113E-6</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>52313</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.39072969033905997</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="10">
+        <v>52313</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.39072969033902599</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.397282455352979E-14</v>
       </c>
     </row>
   </sheetData>
@@ -1484,449 +1499,491 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1"/>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18">
-        <v>41348</v>
-      </c>
-      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8">
         <v>99.9995000025</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18">
-        <v>41348</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.99999500002499997</v>
-      </c>
-      <c r="H2" s="25">
+      <c r="D2" s="9"/>
+      <c r="E2" s="10">
+        <v>41354</v>
+      </c>
+      <c r="F2" s="11">
+        <v>99.9995000025</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="6">
+        <f>(F2-C2)/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18">
-        <v>41351</v>
-      </c>
-      <c r="C3" s="19">
-        <v>99.997833371943997</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18">
-        <v>41351</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.99997833371943801</v>
-      </c>
-      <c r="H3" s="25">
-        <v>1.9984014443252818E-15</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>41355</v>
+      </c>
+      <c r="C3" s="8">
+        <v>99.998944452808999</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10">
+        <v>41355</v>
+      </c>
+      <c r="F3" s="15">
+        <v>99.998944452808601</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H21" si="0">(F3-C3)/100</f>
+        <v>-3.9790393202565614E-15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18">
-        <v>41382</v>
-      </c>
-      <c r="C4" s="19">
-        <v>99.981905698904001</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="18">
-        <v>41382</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.999819056989109</v>
-      </c>
-      <c r="H4" s="25">
-        <v>-6.8944849829222221E-14</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>41386</v>
+      </c>
+      <c r="C4" s="8">
+        <v>99.983016602801001</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="10">
+        <v>41386</v>
+      </c>
+      <c r="F4" s="15">
+        <v>99.983016602802493</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4921397450962105E-14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18">
-        <v>41443</v>
-      </c>
-      <c r="C5" s="19">
-        <v>99.921227097835995</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="18">
-        <v>41443</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.99921227097835497</v>
-      </c>
-      <c r="H5" s="25">
-        <v>4.9960036108132044E-15</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>41449</v>
+      </c>
+      <c r="C5" s="8">
+        <v>99.920673258755997</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10">
+        <v>41449</v>
+      </c>
+      <c r="F5" s="15">
+        <v>99.920673258755897</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.9475983006414035E-16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18">
-        <v>41535</v>
-      </c>
-      <c r="C6" s="19">
-        <v>99.750308523027996</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18">
-        <v>41535</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0.99750308523027698</v>
-      </c>
-      <c r="H6" s="25">
-        <v>2.9976021664879227E-15</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>41540</v>
+      </c>
+      <c r="C6" s="8">
+        <v>99.750074942915006</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10">
+        <v>41540</v>
+      </c>
+      <c r="F6" s="15">
+        <v>99.750074942914495</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.1159076974727211E-15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18">
-        <v>41626</v>
-      </c>
-      <c r="C7" s="19">
-        <v>99.574613604510006</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="18">
-        <v>41626</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.99574613604509699</v>
-      </c>
-      <c r="H7" s="25">
-        <v>3.1086244689504383E-15</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
+        <v>41631</v>
+      </c>
+      <c r="C7" s="8">
+        <v>99.574187521957001</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10">
+        <v>41631</v>
+      </c>
+      <c r="F7" s="15">
+        <v>99.574187521956603</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.9790393202565614E-15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>41716</v>
-      </c>
-      <c r="C8" s="22">
-        <v>99.687707257390997</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21">
-        <v>41716</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.99687707257401903</v>
-      </c>
-      <c r="H8" s="26">
-        <v>-1.0902390101819037E-13</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>41722</v>
+      </c>
+      <c r="C8" s="17">
+        <v>99.687159106712997</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="10">
+        <v>41722</v>
+      </c>
+      <c r="F8" s="18">
+        <v>99.687159106723698</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0700773600547109E-13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18">
-        <v>42081</v>
-      </c>
-      <c r="C9" s="19">
-        <v>99.257216817360998</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18">
-        <v>42081</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.99257216817357896</v>
-      </c>
-      <c r="H9" s="25">
-        <v>3.0975222387041867E-14</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>42086</v>
+      </c>
+      <c r="C9" s="8">
+        <v>99.257387450549004</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="10">
+        <v>42086</v>
+      </c>
+      <c r="F9" s="15">
+        <v>99.257387450555598</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>6.5938365878537293E-14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18">
-        <v>42447</v>
-      </c>
-      <c r="C10" s="19">
-        <v>98.541473832931004</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18">
-        <v>42447</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.98541510424344603</v>
-      </c>
-      <c r="H10" s="25">
-        <v>-3.6591413599129652E-7</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>42451</v>
+      </c>
+      <c r="C10" s="8">
+        <v>98.542737229975998</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="10">
+        <v>42451</v>
+      </c>
+      <c r="F10" s="15">
+        <v>98.542737229979409</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4106051316484808E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18">
-        <v>42814</v>
-      </c>
-      <c r="C11" s="19">
-        <v>97.309100857771995</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18">
-        <v>42814</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0.97309115394525902</v>
-      </c>
-      <c r="H11" s="25">
-        <v>-1.4536753911720268E-7</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="13">
+        <v>42816</v>
+      </c>
+      <c r="C11" s="8">
+        <v>97.314080718051002</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="10">
+        <v>42816</v>
+      </c>
+      <c r="F11" s="15">
+        <v>97.314080718049894</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.1084466677857563E-14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18">
-        <v>43178</v>
-      </c>
-      <c r="C12" s="19">
-        <v>95.508912364444001</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18">
-        <v>43178</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.95508849589574296</v>
-      </c>
-      <c r="H12" s="25">
-        <v>6.2774869702408864E-7</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
+        <v>43181</v>
+      </c>
+      <c r="C12" s="8">
+        <v>95.512698862055998</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="10">
+        <v>43181</v>
+      </c>
+      <c r="F12" s="15">
+        <v>95.512698862053199</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.7995383788947947E-14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18">
-        <v>43542</v>
-      </c>
-      <c r="C13" s="19">
-        <v>93.197822663126004</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18">
-        <v>43542</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0.93197987919383896</v>
-      </c>
-      <c r="H13" s="25">
-        <v>-1.6525625788910148E-6</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="13">
+        <v>43549</v>
+      </c>
+      <c r="C13" s="8">
+        <v>93.180835750623004</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="10">
+        <v>43549</v>
+      </c>
+      <c r="F13" s="15">
+        <v>93.180835750631104</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>8.1001871876651424E-14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18">
-        <v>43908</v>
-      </c>
-      <c r="C14" s="19">
-        <v>90.534600790549007</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18">
-        <v>43908</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0.90535290293644699</v>
-      </c>
-      <c r="H14" s="25">
-        <v>-6.8950309569659751E-6</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>43913</v>
+      </c>
+      <c r="C14" s="8">
+        <v>90.533506989033</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="10">
+        <v>43913</v>
+      </c>
+      <c r="F14" s="15">
+        <v>90.5335069890412</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>8.1996631706715555E-14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18">
-        <v>44273</v>
-      </c>
-      <c r="C15" s="19">
-        <v>87.661169913928006</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18">
-        <v>44273</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.87662421358293996</v>
-      </c>
-      <c r="H15" s="25">
-        <v>-1.2514443659905616E-5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="13">
+        <v>44277</v>
+      </c>
+      <c r="C15" s="8">
+        <v>87.664176878120003</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="10">
+        <v>44277</v>
+      </c>
+      <c r="F15" s="15">
+        <v>87.66417687811709</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.9132252166164105E-14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18">
-        <v>44641</v>
-      </c>
-      <c r="C16" s="19">
-        <v>84.693342141586001</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18">
-        <v>44638</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.84719832671937001</v>
-      </c>
-      <c r="H16" s="25">
-        <v>-2.6490530350997687E-4</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="13">
+        <v>44642</v>
+      </c>
+      <c r="C16" s="8">
+        <v>84.721644704526</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="10">
+        <v>44642</v>
+      </c>
+      <c r="F16" s="15">
+        <v>84.7216447044527</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>-7.3299588621011933E-13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18">
-        <v>45005</v>
-      </c>
-      <c r="C17" s="19">
-        <v>81.698086468154003</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18">
-        <v>45005</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0.81699776826864701</v>
-      </c>
-      <c r="H17" s="25">
-        <v>-1.6903587106931184E-5</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
+        <v>45007</v>
+      </c>
+      <c r="C17" s="8">
+        <v>81.710522283863995</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="10">
+        <v>45007</v>
+      </c>
+      <c r="F17" s="15">
+        <v>81.710522283870205</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>6.2101435105432758E-14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18">
-        <v>46832</v>
-      </c>
-      <c r="C18" s="19">
-        <v>67.212304062041994</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18">
-        <v>46832</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0.67214651815021997</v>
-      </c>
-      <c r="H18" s="25">
-        <v>-2.3477529800031149E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
+        <v>46834</v>
+      </c>
+      <c r="C18" s="8">
+        <v>67.271302163683004</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="10">
+        <v>46834</v>
+      </c>
+      <c r="F18" s="15">
+        <v>67.27130216368829</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2864379540551457E-14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18">
-        <v>48659</v>
-      </c>
-      <c r="C19" s="19">
-        <v>55.704874565360001</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="18">
-        <v>48656</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0.55744537192938204</v>
-      </c>
-      <c r="H19" s="25">
-        <v>-3.9662627578207488E-4</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="13">
+        <v>48660</v>
+      </c>
+      <c r="C19" s="8">
+        <v>55.788927788500999</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="10">
+        <v>48660</v>
+      </c>
+      <c r="F19" s="15">
+        <v>55.7889277885007</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.9842794901924207E-15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="18">
-        <v>50482</v>
-      </c>
-      <c r="C20" s="19">
-        <v>46.608576814906002</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18">
-        <v>50482</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0.46622423303866101</v>
-      </c>
-      <c r="H20" s="25">
-        <v>-1.3846488960100878E-4</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>50486</v>
+      </c>
+      <c r="C20" s="8">
+        <v>46.675015670161997</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="10">
+        <v>50486</v>
+      </c>
+      <c r="F20" s="15">
+        <v>46.675015670160306</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.6910917111090384E-14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="18">
-        <v>52308</v>
-      </c>
-      <c r="C21" s="19">
-        <v>39.074992180891002</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18">
-        <v>52308</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0.39076383325725</v>
-      </c>
-      <c r="H21" s="25">
-        <v>-1.3911448340009347E-5</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="13">
+        <v>52313</v>
+      </c>
+      <c r="C21" s="8">
+        <v>39.134465575709001</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10">
+        <v>52313</v>
+      </c>
+      <c r="F21" s="15">
+        <v>39.1344655757147</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6985527407960032E-14</v>
       </c>
     </row>
   </sheetData>

--- a/DymonProject/DymonProject/SwapCurveResult.xlsx
+++ b/DymonProject/DymonProject/SwapCurveResult.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="14220" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="14220" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="LogLinear on DF" sheetId="1" r:id="rId1"/>
-    <sheet name="Linear on Zero" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Swap LogLinear on DF" sheetId="1" r:id="rId1"/>
+    <sheet name="Swap Linear on Zero" sheetId="2" r:id="rId2"/>
+    <sheet name="Bond LogLinear on DF" sheetId="3" r:id="rId3"/>
+    <sheet name="Bond Linear on Zero" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <t>USD/DEP/1D</t>
   </si>
@@ -88,18 +89,52 @@
   </si>
   <si>
     <t>21/03/2013</t>
+  </si>
+  <si>
+    <t>B 04/04/13</t>
+  </si>
+  <si>
+    <t>T 0 1/4 03/31/14</t>
+  </si>
+  <si>
+    <t>T 0 3/8 04/15/15</t>
+  </si>
+  <si>
+    <t>T 1 1/4 08/31/15</t>
+  </si>
+  <si>
+    <t>T 1 03/31/17</t>
+  </si>
+  <si>
+    <t>T 2 3/4 02/15/19</t>
+  </si>
+  <si>
+    <t>T 1 1/2 03/31/19</t>
+  </si>
+  <si>
+    <t>T 3 5/8 02/15/20</t>
+  </si>
+  <si>
+    <t>T 2 11/15/21</t>
+  </si>
+  <si>
+    <t>T 2 02/15/22</t>
+  </si>
+  <si>
+    <t>T 3 1/8 02/15/42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="0.00000000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000000000"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -240,6 +275,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -556,7 +592,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -615,8 +651,23 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,49 +675,69 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="58" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="45"/>
+    <cellStyle name="20% - Accent1 3" xfId="61"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="47"/>
+    <cellStyle name="20% - Accent2 3" xfId="63"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="49"/>
+    <cellStyle name="20% - Accent3 3" xfId="65"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="51"/>
+    <cellStyle name="20% - Accent4 3" xfId="67"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="53"/>
+    <cellStyle name="20% - Accent5 3" xfId="69"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="55"/>
+    <cellStyle name="20% - Accent6 3" xfId="71"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="46"/>
+    <cellStyle name="40% - Accent1 3" xfId="62"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="48"/>
+    <cellStyle name="40% - Accent2 3" xfId="64"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="50"/>
+    <cellStyle name="40% - Accent3 3" xfId="66"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="52"/>
+    <cellStyle name="40% - Accent4 3" xfId="68"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="54"/>
+    <cellStyle name="40% - Accent5 3" xfId="70"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="56"/>
+    <cellStyle name="40% - Accent6 3" xfId="72"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -693,10 +764,13 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="57"/>
+    <cellStyle name="Normal 2 2" xfId="58"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="Normal 4" xfId="42"/>
+    <cellStyle name="Normal 4 2" xfId="59"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="44"/>
+    <cellStyle name="Note 3" xfId="60"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1001,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,12 +2067,548 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24">
+        <v>41368</v>
+      </c>
+      <c r="C2" s="25">
+        <v>99.998374999999996</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24">
+        <v>41368</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0.99998374999999995</v>
+      </c>
+      <c r="H2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="24">
+        <v>41729</v>
+      </c>
+      <c r="C3" s="25">
+        <v>99.825020604543994</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24">
+        <v>41729</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.99825020604541104</v>
+      </c>
+      <c r="H3" s="22">
+        <v>2.886579864025407E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="24">
+        <v>42109</v>
+      </c>
+      <c r="C4" s="25">
+        <v>99.489366040422993</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24">
+        <v>42109</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.99489366040428695</v>
+      </c>
+      <c r="H4" s="22">
+        <v>-5.7065463465733046E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="24">
+        <v>42247</v>
+      </c>
+      <c r="C5" s="25">
+        <v>99.348751843350996</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24">
+        <v>42247</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.99348751843346295</v>
+      </c>
+      <c r="H5" s="22">
+        <v>4.6962433941644122E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="24">
+        <v>42825</v>
+      </c>
+      <c r="C6" s="25">
+        <v>97.771415341388007</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24">
+        <v>42825</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.97771415341381895</v>
+      </c>
+      <c r="H6" s="22">
+        <v>6.106226635438361E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="24">
+        <v>43511</v>
+      </c>
+      <c r="C7" s="25">
+        <v>94.415583194966004</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24">
+        <v>43511</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.94415583194959796</v>
+      </c>
+      <c r="H7" s="22">
+        <v>6.2061467076546251E-14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="24">
+        <v>43556</v>
+      </c>
+      <c r="C8" s="25">
+        <v>94.027098746248996</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24">
+        <v>43556</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.94027098746247495</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1.4988010832439613E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="24">
+        <v>43879</v>
+      </c>
+      <c r="C9" s="25">
+        <v>91.914726149455007</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24">
+        <v>43879</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.91914726149460102</v>
+      </c>
+      <c r="H9" s="22">
+        <v>-5.0959236830294685E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="24">
+        <v>44515</v>
+      </c>
+      <c r="C10" s="25">
+        <v>86.452914276943005</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24">
+        <v>44515</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.86452914276941395</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1.609823385706477E-14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="24">
+        <v>44607</v>
+      </c>
+      <c r="C11" s="25">
+        <v>85.658166731351997</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24">
+        <v>44607</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.85658166731354801</v>
+      </c>
+      <c r="H11" s="22">
+        <v>-2.808864252301646E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="24">
+        <v>51914</v>
+      </c>
+      <c r="C12" s="25">
+        <v>38.318232624048001</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24">
+        <v>51914</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.38318232624800103</v>
+      </c>
+      <c r="H12" s="22">
+        <v>-7.5210393468694292E-12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="28">
+        <v>41368</v>
+      </c>
+      <c r="C2" s="27">
+        <v>99.998374999999996</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28">
+        <v>41368</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.99998374999999995</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="28">
+        <v>41729</v>
+      </c>
+      <c r="C3" s="27">
+        <v>99.824985753454996</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28">
+        <v>41729</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.99824985350138995</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="29">
+        <v>-4.0331600281717783E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28">
+        <v>42109</v>
+      </c>
+      <c r="C4" s="27">
+        <v>99.489265444675993</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28">
+        <v>42109</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.99489265446203101</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="29">
+        <v>1.5271117703719028E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="28">
+        <v>42247</v>
+      </c>
+      <c r="C5" s="27">
+        <v>99.348360117770994</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>42247</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.99348360122966095</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="29">
+        <v>5.1950999058192338E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="28">
+        <v>42825</v>
+      </c>
+      <c r="C6" s="27">
+        <v>97.770046541485002</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28">
+        <v>42825</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.977700449451817</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="29">
+        <v>-1.5963033006549665E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="28">
+        <v>43511</v>
+      </c>
+      <c r="C7" s="27">
+        <v>94.405641014679006</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28">
+        <v>43511</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.94405641099926096</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="29">
+        <v>8.5247087167061864E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="28">
+        <v>43556</v>
+      </c>
+      <c r="C8" s="27">
+        <v>94.021836329826996</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28">
+        <v>43556</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.94021833971930502</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="29">
+        <v>-2.3578964891690646E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="28">
+        <v>43879</v>
+      </c>
+      <c r="C9" s="27">
+        <v>91.901302399230005</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28">
+        <v>43879</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.91901302534209595</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="29">
+        <v>1.3497959416852723E-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="28">
+        <v>44515</v>
+      </c>
+      <c r="C10" s="27">
+        <v>86.441355730628004</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28">
+        <v>44515</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.86441355816718302</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="29">
+        <v>8.609030155426467E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="28">
+        <v>44607</v>
+      </c>
+      <c r="C11" s="27">
+        <v>85.647191930922006</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28">
+        <v>44607</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.85647192001402495</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="29">
+        <v>7.0480488112423245E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="28">
+        <v>51914</v>
+      </c>
+      <c r="C12" s="27">
+        <v>36.839706253590002</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28">
+        <v>51914</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.368397063148933</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="29">
+        <v>6.1303295773029731E-10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>